--- a/Data_processed/industry/chem proxi.xlsx
+++ b/Data_processed/industry/chem proxi.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/industry/chem proxi.xlsx
+++ b/Data_processed/industry/chem proxi.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/industry/chem proxi.xlsx
+++ b/Data_processed/industry/chem proxi.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.72032915281168</v>
+        <v>4.1313916</v>
       </c>
       <c r="E2" t="n">
-        <v>4.1313916</v>
+        <v>60.61437</v>
       </c>
       <c r="F2" t="n">
-        <v>60.61437</v>
+        <v>0.00011519416</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3187041701814804</v>
+        <v>1.79</v>
       </c>
       <c r="E3" t="n">
-        <v>1.79</v>
+        <v>38.805</v>
       </c>
       <c r="F3" t="n">
-        <v>38.805</v>
+        <v>4.990995e-05</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.2915432013178786</v>
+        <v>1.64</v>
       </c>
       <c r="E4" t="n">
-        <v>1.64</v>
+        <v>34.089</v>
       </c>
       <c r="F4" t="n">
-        <v>34.089</v>
+        <v>4.5727552e-05</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.488833019935</v>
+        <v>2.620544533333333</v>
       </c>
       <c r="E5" t="n">
-        <v>2.620544533333333</v>
+        <v>61.375966</v>
       </c>
       <c r="F5" t="n">
-        <v>61.375966</v>
+        <v>7.3067734e-05</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0242104690012</v>
+        <v>0.09338798666666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.09338798666666667</v>
+        <v>2.5214709</v>
       </c>
       <c r="F6" t="n">
-        <v>2.5214709</v>
+        <v>2.6039048e-06</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1637719688215</v>
+        <v>0.8035484000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8035484000000001</v>
+        <v>8.836332799999999</v>
       </c>
       <c r="F7" t="n">
-        <v>8.836332799999999</v>
+        <v>2.2405062e-05</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.1682196812517914</v>
+        <v>0.78</v>
       </c>
       <c r="E8" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.174847e-05</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.4011282964089</v>
+        <v>2.379356533333334</v>
       </c>
       <c r="E9" t="n">
-        <v>2.379356533333334</v>
+        <v>35.295451</v>
       </c>
       <c r="F9" t="n">
-        <v>35.295451</v>
+        <v>6.6342773e-05</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.316042315649071</v>
+        <v>1.542133466666667</v>
       </c>
       <c r="E10" t="n">
-        <v>1.542133466666667</v>
+        <v>14.934935</v>
       </c>
       <c r="F10" t="n">
-        <v>14.934935</v>
+        <v>4.2998774e-05</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.27643660187171</v>
+        <v>1.3280636</v>
       </c>
       <c r="E11" t="n">
-        <v>1.3280636</v>
+        <v>75.315056</v>
       </c>
       <c r="F11" t="n">
-        <v>75.315056</v>
+        <v>3.7029937e-05</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.324270971248362</v>
+        <v>1.8238148</v>
       </c>
       <c r="E12" t="n">
-        <v>1.8238148</v>
+        <v>29.609181</v>
       </c>
       <c r="F12" t="n">
-        <v>29.609181</v>
+        <v>5.0852796e-05</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.544139208210368</v>
+        <v>2.986833133333334</v>
       </c>
       <c r="E13" t="n">
-        <v>2.986833133333334</v>
+        <v>75.12312300000001</v>
       </c>
       <c r="F13" t="n">
-        <v>75.12312300000001</v>
+        <v>8.3280832e-05</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.5301279561654451</v>
+        <v>2.0751964</v>
       </c>
       <c r="E14" t="n">
-        <v>2.0751964</v>
+        <v>47.479622</v>
       </c>
       <c r="F14" t="n">
-        <v>47.479622</v>
+        <v>5.7861982e-05</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.5439299664999999</v>
+        <v>1.890022333333333</v>
       </c>
       <c r="E15" t="n">
-        <v>1.890022333333333</v>
+        <v>62.250508</v>
       </c>
       <c r="F15" t="n">
-        <v>62.250508</v>
+        <v>5.2698837e-05</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6760126877788301</v>
+        <v>0.5026733466666666</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5026733466666666</v>
+        <v>7.4880533</v>
       </c>
       <c r="F16" t="n">
-        <v>7.4880533</v>
+        <v>1.4015867e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.48468774915155</v>
+        <v>3.983525266666667</v>
       </c>
       <c r="E17" t="n">
-        <v>3.983525266666667</v>
+        <v>77.763001</v>
       </c>
       <c r="F17" t="n">
-        <v>77.763001</v>
+        <v>0.00011107125</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.6797435913305701</v>
+        <v>2.0578642</v>
       </c>
       <c r="E18" t="n">
-        <v>2.0578642</v>
+        <v>50.653555</v>
       </c>
       <c r="F18" t="n">
-        <v>50.653555</v>
+        <v>5.7378714e-05</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.502523891401</v>
+        <v>2.561455333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>2.561455333333333</v>
+        <v>58.395504</v>
       </c>
       <c r="F19" t="n">
-        <v>58.395504</v>
+        <v>7.142017199999999e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.570284438045</v>
+        <v>2.9458464</v>
       </c>
       <c r="E20" t="n">
-        <v>2.9458464</v>
+        <v>65.294372</v>
       </c>
       <c r="F20" t="n">
-        <v>65.294372</v>
+        <v>8.213801299999999e-05</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.3832881093576</v>
+        <v>2.142879333333334</v>
       </c>
       <c r="E21" t="n">
-        <v>2.142879333333334</v>
+        <v>43.407246</v>
       </c>
       <c r="F21" t="n">
-        <v>43.407246</v>
+        <v>5.9749162e-05</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.2605328201011</v>
+        <v>1.460935066666667</v>
       </c>
       <c r="E22" t="n">
-        <v>1.460935066666667</v>
+        <v>58.588062</v>
       </c>
       <c r="F22" t="n">
-        <v>58.588062</v>
+        <v>4.0734747e-05</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.797534348202</v>
+        <v>4.0163602</v>
       </c>
       <c r="E23" t="n">
-        <v>4.0163602</v>
+        <v>87.352273</v>
       </c>
       <c r="F23" t="n">
-        <v>87.352273</v>
+        <v>0.00011198678</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.323048327614238</v>
+        <v>1.673620933333333</v>
       </c>
       <c r="E24" t="n">
-        <v>1.673620933333333</v>
+        <v>55.588478</v>
       </c>
       <c r="F24" t="n">
-        <v>55.588478</v>
+        <v>4.6664993e-05</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.3072032259456</v>
+        <v>1.793663133333333</v>
       </c>
       <c r="E25" t="n">
-        <v>1.793663133333333</v>
+        <v>47.370128</v>
       </c>
       <c r="F25" t="n">
-        <v>47.370128</v>
+        <v>5.0012088e-05</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.5412259082</v>
+        <v>2.177444466666667</v>
       </c>
       <c r="E26" t="n">
-        <v>2.177444466666667</v>
+        <v>40.59918</v>
       </c>
       <c r="F26" t="n">
-        <v>40.59918</v>
+        <v>6.0712929e-05</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.838865411897</v>
+        <v>4.659567733333334</v>
       </c>
       <c r="E27" t="n">
-        <v>4.659567733333334</v>
+        <v>105.42676</v>
       </c>
       <c r="F27" t="n">
-        <v>105.42676</v>
+        <v>0.00012992111</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2.62277821581526</v>
+        <v>12.605054</v>
       </c>
       <c r="E28" t="n">
-        <v>12.605054</v>
+        <v>351.42059</v>
       </c>
       <c r="F28" t="n">
-        <v>351.42059</v>
+        <v>0.00035146236</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.1233570988245868</v>
+        <v>0.2090058666666667</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2090058666666667</v>
+        <v>6.4803149</v>
       </c>
       <c r="F29" t="n">
-        <v>6.4803149</v>
+        <v>5.8276381e-06</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.1591215655462</v>
+        <v>0.7808038666666667</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7808038666666667</v>
+        <v>6.7708495</v>
       </c>
       <c r="F30" t="n">
-        <v>6.7708495</v>
+        <v>2.1770883e-05</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1.967139264959</v>
+        <v>8.856381333333333</v>
       </c>
       <c r="E31" t="n">
-        <v>8.856381333333333</v>
+        <v>57.483868</v>
       </c>
       <c r="F31" t="n">
-        <v>57.483868</v>
+        <v>0.00024693941</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.37089694190805</v>
+        <v>2.203487266666667</v>
       </c>
       <c r="E32" t="n">
-        <v>2.203487266666667</v>
+        <v>32.65708</v>
       </c>
       <c r="F32" t="n">
-        <v>32.65708</v>
+        <v>6.1439072e-05</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.2848384440447</v>
+        <v>1.680360666666667</v>
       </c>
       <c r="E33" t="n">
-        <v>1.680360666666667</v>
+        <v>27.880472</v>
       </c>
       <c r="F33" t="n">
-        <v>27.880472</v>
+        <v>4.6852914e-05</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>31.36788878083968</v>
+        <v>34.845508</v>
       </c>
       <c r="E34" t="n">
-        <v>34.845508</v>
+        <v>1.2539938</v>
       </c>
       <c r="F34" t="n">
-        <v>1.2539938</v>
+        <v>0.00097158523</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.583114992849</v>
+        <v>3.455141933333334</v>
       </c>
       <c r="E35" t="n">
-        <v>3.455141933333334</v>
+        <v>51.276116</v>
       </c>
       <c r="F35" t="n">
-        <v>51.276116</v>
+        <v>9.6338525e-05</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>10.578374265511</v>
+        <v>6.463857466666666</v>
       </c>
       <c r="E36" t="n">
-        <v>6.463857466666666</v>
+        <v>93.689335</v>
       </c>
       <c r="F36" t="n">
-        <v>93.689335</v>
+        <v>0.0001802295</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.084876830374</v>
+        <v>5.809134333333334</v>
       </c>
       <c r="E37" t="n">
-        <v>5.809134333333334</v>
+        <v>126.98236</v>
       </c>
       <c r="F37" t="n">
-        <v>126.98236</v>
+        <v>0.00016197408</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.09572295902964099</v>
+        <v>0.6367931466666666</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6367931466666666</v>
+        <v>0.087160556</v>
       </c>
       <c r="F38" t="n">
-        <v>0.087160556</v>
+        <v>1.7755483e-05</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.1268135418567</v>
+        <v>0.4684158066666667</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4684158066666667</v>
+        <v>7.4389603</v>
       </c>
       <c r="F39" t="n">
-        <v>7.4389603</v>
+        <v>1.3060676e-05</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.02170636539</v>
+        <v>0.08892</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08892</v>
+        <v>1.56066</v>
       </c>
       <c r="F40" t="n">
-        <v>1.56066</v>
+        <v>2.4793255e-06</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.350648335436233</v>
+        <v>1.98</v>
       </c>
       <c r="E41" t="n">
-        <v>1.98</v>
+        <v>53.284</v>
       </c>
       <c r="F41" t="n">
-        <v>53.284</v>
+        <v>5.5207654e-05</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.2592366842684</v>
+        <v>1.139449333333333</v>
       </c>
       <c r="E42" t="n">
-        <v>1.139449333333333</v>
+        <v>13.834677</v>
       </c>
       <c r="F42" t="n">
-        <v>13.834677</v>
+        <v>3.1770871e-05</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.6910367515547</v>
+        <v>3.3067696</v>
       </c>
       <c r="E43" t="n">
-        <v>3.3067696</v>
+        <v>1.5688</v>
       </c>
       <c r="F43" t="n">
-        <v>1.5688</v>
+        <v>9.2201511e-05</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.231324980735221</v>
+        <v>1.174379333333333</v>
       </c>
       <c r="E44" t="n">
-        <v>1.174379333333333</v>
+        <v>13.365076</v>
       </c>
       <c r="F44" t="n">
-        <v>13.365076</v>
+        <v>3.2744813e-05</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.00571137774179</v>
+        <v>0.03397432133333333</v>
       </c>
       <c r="E45" t="n">
-        <v>0.03397432133333333</v>
+        <v>12.746392</v>
       </c>
       <c r="F45" t="n">
-        <v>12.746392</v>
+        <v>9.4729422e-07</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.04629524994496</v>
+        <v>0.23430142</v>
       </c>
       <c r="E46" t="n">
-        <v>0.23430142</v>
+        <v>4.2267458</v>
       </c>
       <c r="F46" t="n">
-        <v>4.2267458</v>
+        <v>6.5329453e-06</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.1728994327084</v>
+        <v>0.9609418666666668</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9609418666666668</v>
+        <v>15.555904</v>
       </c>
       <c r="F47" t="n">
-        <v>15.555904</v>
+        <v>2.6793608e-05</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.1550659991711</v>
+        <v>0.9134014666666667</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9134014666666667</v>
+        <v>13.703111</v>
       </c>
       <c r="F48" t="n">
-        <v>13.703111</v>
+        <v>2.5468057e-05</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.3633104131738503</v>
+        <v>2.09</v>
       </c>
       <c r="E49" t="n">
-        <v>2.09</v>
+        <v>44.732</v>
       </c>
       <c r="F49" t="n">
-        <v>44.732</v>
+        <v>5.8274746e-05</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.321812052708</v>
+        <v>1.673234733333334</v>
       </c>
       <c r="E50" t="n">
-        <v>1.673234733333334</v>
+        <v>44.107467</v>
       </c>
       <c r="F50" t="n">
-        <v>44.107467</v>
+        <v>4.6654225e-05</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.1938585725751</v>
+        <v>1.161791533333334</v>
       </c>
       <c r="E51" t="n">
-        <v>1.161791533333334</v>
+        <v>33.38924</v>
       </c>
       <c r="F51" t="n">
-        <v>33.38924</v>
+        <v>3.2393831e-05</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.9465940246700001</v>
+        <v>5.4871084</v>
       </c>
       <c r="E52" t="n">
-        <v>5.4871084</v>
+        <v>159.8824</v>
       </c>
       <c r="F52" t="n">
-        <v>159.8824</v>
+        <v>0.00015299514</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.2374680471726262</v>
+        <v>1.22</v>
       </c>
       <c r="E53" t="n">
-        <v>1.22</v>
+        <v>52.706</v>
       </c>
       <c r="F53" t="n">
-        <v>52.706</v>
+        <v>3.4016837e-05</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>37.90923329005026</v>
+        <v>27.86650133333334</v>
       </c>
       <c r="E54" t="n">
-        <v>27.86650133333334</v>
+        <v>195.50295</v>
       </c>
       <c r="F54" t="n">
-        <v>195.50295</v>
+        <v>0.00077699201</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.2834199783998808</v>
+        <v>1.58</v>
       </c>
       <c r="E55" t="n">
-        <v>1.58</v>
+        <v>51.022</v>
       </c>
       <c r="F55" t="n">
-        <v>51.022</v>
+        <v>4.4054592e-05</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.2624199783998808</v>
+        <v>1.44</v>
       </c>
       <c r="E56" t="n">
-        <v>1.44</v>
+        <v>51.022</v>
       </c>
       <c r="F56" t="n">
-        <v>51.022</v>
+        <v>4.0151021e-05</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.998140148850749</v>
+        <v>5.277811466666667</v>
       </c>
       <c r="E57" t="n">
-        <v>5.277811466666667</v>
+        <v>75.186879</v>
       </c>
       <c r="F57" t="n">
-        <v>75.186879</v>
+        <v>0.00014715939</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.01561383849755</v>
+        <v>0.09287944000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>0.09287944000000001</v>
+        <v>17.763779</v>
       </c>
       <c r="F58" t="n">
-        <v>17.763779</v>
+        <v>2.5897252e-06</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.2788071290180769</v>
+        <v>1.43</v>
       </c>
       <c r="E59" t="n">
-        <v>1.43</v>
+        <v>52.388</v>
       </c>
       <c r="F59" t="n">
-        <v>52.388</v>
+        <v>3.9872194e-05</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.8305303910449999</v>
+        <v>3.575</v>
       </c>
       <c r="E60" t="n">
-        <v>3.575</v>
+        <v>3.1119</v>
       </c>
       <c r="F60" t="n">
-        <v>3.1119</v>
+        <v>9.9680486e-05</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.07250801982</v>
+        <v>8.826000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>8.826000000000001</v>
+        <v>6.4493</v>
       </c>
       <c r="F61" t="n">
-        <v>6.4493</v>
+        <v>0.0002460923</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1.005655368462</v>
+        <v>4.007</v>
       </c>
       <c r="E62" t="n">
-        <v>4.007</v>
+        <v>4.5551</v>
       </c>
       <c r="F62" t="n">
-        <v>4.5551</v>
+        <v>0.00011172579</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.940734984586</v>
+        <v>2.186</v>
       </c>
       <c r="E63" t="n">
-        <v>2.186</v>
+        <v>2.00695</v>
       </c>
       <c r="F63" t="n">
-        <v>2.00695</v>
+        <v>6.095148e-05</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.5008001258715999</v>
+        <v>2.021</v>
       </c>
       <c r="E64" t="n">
-        <v>2.021</v>
+        <v>2.17833</v>
       </c>
       <c r="F64" t="n">
-        <v>2.17833</v>
+        <v>5.6350843e-05</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1.28409711325</v>
+        <v>4.004</v>
       </c>
       <c r="E65" t="n">
-        <v>4.004</v>
+        <v>8.118</v>
       </c>
       <c r="F65" t="n">
-        <v>8.118</v>
+        <v>0.00011164214</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2471,13 +2516,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.877879870945</v>
+        <v>6.558000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>6.558000000000001</v>
+        <v>6.5846</v>
       </c>
       <c r="F66" t="n">
-        <v>6.5846</v>
+        <v>0.00018285444</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2502,13 +2547,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>2.04314384033</v>
+        <v>7.532</v>
       </c>
       <c r="E67" t="n">
-        <v>7.532</v>
+        <v>7.7121</v>
       </c>
       <c r="F67" t="n">
-        <v>7.7121</v>
+        <v>0.00021001215</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2533,13 +2578,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2.75311388278</v>
+        <v>4.232</v>
       </c>
       <c r="E68" t="n">
-        <v>4.232</v>
+        <v>5.2316</v>
       </c>
       <c r="F68" t="n">
-        <v>5.2316</v>
+        <v>0.00011799939</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2564,13 +2609,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.6688680055260001</v>
+        <v>2.584</v>
       </c>
       <c r="E69" t="n">
-        <v>2.584</v>
+        <v>2.06558</v>
       </c>
       <c r="F69" t="n">
-        <v>2.06558</v>
+        <v>7.2048776e-05</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2595,13 +2640,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.703115233126</v>
+        <v>2.254</v>
       </c>
       <c r="E70" t="n">
-        <v>2.254</v>
+        <v>2.27304</v>
       </c>
       <c r="F70" t="n">
-        <v>2.27304</v>
+        <v>6.284750099999999e-05</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2626,13 +2671,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1.2713405756</v>
+        <v>5.58</v>
       </c>
       <c r="E71" t="n">
-        <v>5.58</v>
+        <v>4.04547</v>
       </c>
       <c r="F71" t="n">
-        <v>4.04547</v>
+        <v>0.00015558521</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2657,13 +2702,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1.1728588958</v>
+        <v>4.561000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>4.561000000000001</v>
+        <v>4.6904</v>
       </c>
       <c r="F72" t="n">
-        <v>4.6904</v>
+        <v>0.00012717278</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2688,13 +2733,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>1.15625495397</v>
+        <v>4.194</v>
       </c>
       <c r="E73" t="n">
-        <v>4.194</v>
+        <v>3.95978</v>
       </c>
       <c r="F73" t="n">
-        <v>3.95978</v>
+        <v>0.00011693985</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2719,13 +2764,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1.13864992929</v>
+        <v>4.877000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>4.877000000000001</v>
+        <v>5.6375</v>
       </c>
       <c r="F74" t="n">
-        <v>5.6375</v>
+        <v>0.0001359837</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2750,13 +2795,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5.360318339999999</v>
+        <v>18.152</v>
       </c>
       <c r="E75" t="n">
-        <v>18.152</v>
+        <v>20.295</v>
       </c>
       <c r="F75" t="n">
-        <v>20.295</v>
+        <v>0.00050612592</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2781,13 +2826,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4.3222103702</v>
+        <v>12.695</v>
       </c>
       <c r="E76" t="n">
-        <v>12.695</v>
+        <v>16.236</v>
       </c>
       <c r="F76" t="n">
-        <v>16.236</v>
+        <v>0.00035397029</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2812,13 +2857,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.50741487318</v>
+        <v>9.743</v>
       </c>
       <c r="E77" t="n">
-        <v>9.743</v>
+        <v>10.5985</v>
       </c>
       <c r="F77" t="n">
-        <v>10.5985</v>
+        <v>0.00027166069</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2843,13 +2888,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3.680325961451</v>
+        <v>20.14824533333334</v>
       </c>
       <c r="E78" t="n">
-        <v>20.14824533333334</v>
+        <v>331.4854</v>
       </c>
       <c r="F78" t="n">
-        <v>331.4854</v>
+        <v>0.00056178654</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2874,13 +2919,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1.349475079315</v>
+        <v>7.134548000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>7.134548000000001</v>
+        <v>106.81737</v>
       </c>
       <c r="F79" t="n">
-        <v>106.81737</v>
+        <v>0.00019893013</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2905,13 +2950,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1.962613053199</v>
+        <v>10.650158</v>
       </c>
       <c r="E80" t="n">
-        <v>10.650158</v>
+        <v>165.92903</v>
       </c>
       <c r="F80" t="n">
-        <v>165.92903</v>
+        <v>0.00029695466</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2936,13 +2981,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1.194893064503</v>
+        <v>6.362434066666667</v>
       </c>
       <c r="E81" t="n">
-        <v>6.362434066666667</v>
+        <v>100.33471</v>
       </c>
       <c r="F81" t="n">
-        <v>100.33471</v>
+        <v>0.00017740154</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2967,13 +3012,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>5.709921362192</v>
+        <v>29.904756</v>
       </c>
       <c r="E82" t="n">
-        <v>29.904756</v>
+        <v>513.07991</v>
       </c>
       <c r="F82" t="n">
-        <v>513.07991</v>
+        <v>0.00083382394</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2998,13 +3043,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>3.410988325939</v>
+        <v>17.72458933333333</v>
       </c>
       <c r="E83" t="n">
-        <v>17.72458933333333</v>
+        <v>267.2817</v>
       </c>
       <c r="F83" t="n">
-        <v>267.2817</v>
+        <v>0.00049420857</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3029,13 +3074,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>3.110885575504</v>
+        <v>17.028758</v>
       </c>
       <c r="E84" t="n">
-        <v>17.028758</v>
+        <v>265.76799</v>
       </c>
       <c r="F84" t="n">
-        <v>265.76799</v>
+        <v>0.00047480697</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3060,13 +3105,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1.365919196905</v>
+        <v>7.421074</v>
       </c>
       <c r="E85" t="n">
-        <v>7.421074</v>
+        <v>118.86345</v>
       </c>
       <c r="F85" t="n">
-        <v>118.86345</v>
+        <v>0.00020691923</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3091,13 +3136,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3.579728973136</v>
+        <v>18.59792733333333</v>
       </c>
       <c r="E86" t="n">
-        <v>18.59792733333333</v>
+        <v>280.94168</v>
       </c>
       <c r="F86" t="n">
-        <v>280.94168</v>
+        <v>0.00051855955</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3122,13 +3167,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.6322675833757</v>
+        <v>3.4441904</v>
       </c>
       <c r="E87" t="n">
-        <v>3.4441904</v>
+        <v>54.852403</v>
       </c>
       <c r="F87" t="n">
-        <v>54.852403</v>
+        <v>9.6033168e-05</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3153,13 +3198,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.8183513745069999</v>
+        <v>4.556701533333333</v>
       </c>
       <c r="E88" t="n">
-        <v>4.556701533333333</v>
+        <v>71.012721</v>
       </c>
       <c r="F88" t="n">
-        <v>71.012721</v>
+        <v>0.00012705293</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3184,13 +3229,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.524143547658</v>
+        <v>8.173439333333333</v>
       </c>
       <c r="E89" t="n">
-        <v>8.173439333333333</v>
+        <v>132.51434</v>
       </c>
       <c r="F89" t="n">
-        <v>132.51434</v>
+        <v>0.00022789717</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3215,13 +3260,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>3.38904204965</v>
+        <v>18.74046333333333</v>
       </c>
       <c r="E90" t="n">
-        <v>18.74046333333333</v>
+        <v>296.5622</v>
       </c>
       <c r="F90" t="n">
-        <v>296.5622</v>
+        <v>0.0005225338400000001</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3246,13 +3291,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.775318606166</v>
+        <v>9.654415333333333</v>
       </c>
       <c r="E91" t="n">
-        <v>9.654415333333333</v>
+        <v>153.74841</v>
       </c>
       <c r="F91" t="n">
-        <v>153.74841</v>
+        <v>0.00026919071</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3277,13 +3322,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.8845606927795999</v>
+        <v>4.8722648</v>
       </c>
       <c r="E92" t="n">
-        <v>4.8722648</v>
+        <v>79.790792</v>
       </c>
       <c r="F92" t="n">
-        <v>79.790792</v>
+        <v>0.00013585167</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3308,13 +3353,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.768457487738</v>
+        <v>9.567364666666666</v>
       </c>
       <c r="E93" t="n">
-        <v>9.567364666666666</v>
+        <v>153.00285</v>
       </c>
       <c r="F93" t="n">
-        <v>153.00285</v>
+        <v>0.00026676351</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3339,13 +3384,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.954611076967</v>
+        <v>5.233569933333333</v>
       </c>
       <c r="E94" t="n">
-        <v>5.233569933333333</v>
+        <v>85.151639</v>
       </c>
       <c r="F94" t="n">
-        <v>85.151639</v>
+        <v>0.00014592582</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3370,13 +3415,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.674592194892</v>
+        <v>3.554398533333333</v>
       </c>
       <c r="E95" t="n">
-        <v>3.554398533333333</v>
+        <v>49.803798</v>
       </c>
       <c r="F95" t="n">
-        <v>49.803798</v>
+        <v>9.9106063e-05</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3401,13 +3446,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.7032717894389999</v>
+        <v>4.0866052</v>
       </c>
       <c r="E96" t="n">
-        <v>4.0866052</v>
+        <v>62.439361</v>
       </c>
       <c r="F96" t="n">
-        <v>62.439361</v>
+        <v>0.0001139454</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3432,13 +3477,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.02593933115</v>
+        <v>5.5591448</v>
       </c>
       <c r="E97" t="n">
-        <v>5.5591448</v>
+        <v>84.53304900000001</v>
       </c>
       <c r="F97" t="n">
-        <v>84.53304900000001</v>
+        <v>0.00015500371</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3463,13 +3508,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.931808487379</v>
+        <v>5.041475066666667</v>
       </c>
       <c r="E98" t="n">
-        <v>5.041475066666667</v>
+        <v>77.182863</v>
       </c>
       <c r="F98" t="n">
-        <v>77.182863</v>
+        <v>0.0001405697</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3494,13 +3539,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3.943860624951</v>
+        <v>22.23878733333333</v>
       </c>
       <c r="E99" t="n">
-        <v>22.23878733333333</v>
+        <v>349.04144</v>
       </c>
       <c r="F99" t="n">
-        <v>349.04144</v>
+        <v>0.0006200764</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3525,13 +3570,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>3.429557586585</v>
+        <v>19.61133533333333</v>
       </c>
       <c r="E100" t="n">
-        <v>19.61133533333333</v>
+        <v>304.90525</v>
       </c>
       <c r="F100" t="n">
-        <v>304.90525</v>
+        <v>0.00054681606</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3556,13 +3601,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>3.0788978131</v>
+        <v>17.16362133333334</v>
       </c>
       <c r="E101" t="n">
-        <v>17.16362133333334</v>
+        <v>268.39865</v>
       </c>
       <c r="F101" t="n">
-        <v>268.39865</v>
+        <v>0.0004785673</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3587,13 +3632,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.463059594745</v>
+        <v>7.850446666666667</v>
       </c>
       <c r="E102" t="n">
-        <v>7.850446666666667</v>
+        <v>123.40009</v>
       </c>
       <c r="F102" t="n">
-        <v>123.40009</v>
+        <v>0.00021889127</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3618,13 +3663,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1.125679811764</v>
+        <v>6.1372816</v>
       </c>
       <c r="E103" t="n">
-        <v>6.1372816</v>
+        <v>99.905069</v>
       </c>
       <c r="F103" t="n">
-        <v>99.905069</v>
+        <v>0.00017112369</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3634,5 +3679,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>